--- a/documentation/Design/State.xlsx
+++ b/documentation/Design/State.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA80C9-351C-CC48-8E40-F3326B2A1E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE398BFE-A124-C342-9ABF-C16CC616D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3700" yWindow="5440" windowWidth="28240" windowHeight="14140" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
   <si>
     <t>-</t>
   </si>
@@ -203,9 +203,6 @@
     <t>login/activate</t>
   </si>
   <si>
-    <t>login/login</t>
-  </si>
-  <si>
     <t>login/forgot_password</t>
   </si>
   <si>
@@ -231,6 +228,21 @@
   </si>
   <si>
     <t>Expired password</t>
+  </si>
+  <si>
+    <t>Acknowledged</t>
+  </si>
+  <si>
+    <t>password/change</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>20, 30</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
 </sst>
 </file>
@@ -651,11 +663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33D6B86-D810-7346-B262-AB059E73AC21}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H3,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H3,State!$A$3:$B$9,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
     </row>
@@ -758,7 +770,7 @@
       </c>
       <c r="G4" s="10"/>
       <c r="I4" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H4,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H4,State!$A$3:$B$9,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -788,8 +800,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H5,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Active</v>
+        <f>_xlfn.IFNA(VLOOKUP(H5,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v>Acknowledged</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -800,16 +812,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H6,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H6,State!$A$3:$B$9,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -817,14 +823,14 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
-        <v>20</v>
+      <c r="B7" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -832,15 +838,15 @@
       <c r="F7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>47</v>
+      <c r="H7" s="8">
+        <v>30</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H7,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
+        <f>_xlfn.IFNA(VLOOKUP(H7,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v>Active</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -860,7 +866,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H8,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H8,State!$A$3:$B$9,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -869,53 +875,61 @@
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="8">
-        <v>10</v>
+      <c r="F9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H9,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Inactive</v>
+        <f>_xlfn.IFNA(VLOOKUP(H9,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>1</v>
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H10,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H10,State!$A$3:$B$9,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>7</v>
@@ -933,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H11,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H11,State!$A$3:$B$9,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
     </row>
@@ -945,9 +959,8 @@
       <c r="F12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="10"/>
       <c r="I12" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H12,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H12,State!$A$3:$B$9,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -955,237 +968,229 @@
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>0</v>
+      <c r="B13" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="8">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H13,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v xml:space="preserve">Blacklisted </v>
+        <f>_xlfn.IFNA(VLOOKUP(H13,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v>Inactive</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D14" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="G14" s="10"/>
       <c r="I14" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H14,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H14,State!$A$3:$B$9,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8">
-        <v>90</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8">
+        <v>99</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H15,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v xml:space="preserve">Blacklisted </v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H15,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="8">
-        <v>99</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H16,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H16,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="I17" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H17,State!$A$3:$B$9,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H18,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H19,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H20,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="I20" s="1"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="8">
-        <v>10</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H21,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Inactive</v>
-      </c>
+        <f>_xlfn.IFNA(VLOOKUP(H21,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="8">
+        <v>58</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="H22" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="I22" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H22,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Active</v>
-      </c>
-      <c r="K22" s="9"/>
+        <f>_xlfn.IFNA(VLOOKUP(H22,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>35</v>
@@ -1193,100 +1198,177 @@
       <c r="D23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="8" t="s">
-        <v>46</v>
+      <c r="E23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="8">
+        <v>10</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H23,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="4"/>
+        <f>_xlfn.IFNA(VLOOKUP(H23,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v>Inactive</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="8">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H24,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v>Acknowledged</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="8">
+        <v>30</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H25,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v>Active</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H26,State!$A$3:$B$9,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H27" s="8">
         <v>99</v>
       </c>
-      <c r="I24" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H24,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="I27" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H27,State!$A$3:$B$9,2,FALSE),"")</f>
         <v xml:space="preserve">Blacklisted </v>
       </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H28" s="8">
         <v>80</v>
       </c>
-      <c r="I25" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H25,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="I28" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H28,State!$A$3:$B$9,2,FALSE),"")</f>
         <v xml:space="preserve">Expired </v>
       </c>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D26" s="9" t="s">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H29" s="8">
         <v>90</v>
       </c>
-      <c r="I26" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H26,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="I29" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H29,State!$A$3:$B$9,2,FALSE),"")</f>
         <v xml:space="preserve">Blocked </v>
       </c>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D27" s="9" t="s">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="12" t="s">
+      <c r="E30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H27,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="I30" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H30,State!$A$3:$B$9,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K28" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF777DA-CA81-394A-9CE7-CF664C6A1871}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1398,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -1335,30 +1417,38 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
+        <v>90</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>99</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
     </row>
